--- a/output/gdp_metrics.xlsx
+++ b/output/gdp_metrics.xlsx
@@ -64,7 +64,7 @@
     <t>785B HKD</t>
   </si>
   <si>
-    <t>30,354B USD</t>
+    <t>30,486B USD</t>
   </si>
   <si>
     <t>137,602 B RMB</t>
